--- a/biology/Zoologie/Colomys_goslingi/Colomys_goslingi.xlsx
+++ b/biology/Zoologie/Colomys_goslingi/Colomys_goslingi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Colomys goslingi est une espèce de rongeurs de la famille des Muridés, et seule représentante du genre Colomys. Ces animaux sont nommés par les anglophones African water rat (Rat aquatique africain).
 </t>
